--- a/data/trans_dic/P25_N_R2-Urba-trans_dic.xlsx
+++ b/data/trans_dic/P25_N_R2-Urba-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K11"/>
+  <dimension ref="A1:N12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -526,12 +527,15 @@
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
     <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que tiene más de dos enfermedades crónicas</t>
+          <t>Población que tiene más de dos enfermedades crónicas (tasa de respuesta: 100,0%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -542,20 +546,23 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
       <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="inlineStr">
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -577,32 +584,47 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
         </is>
       </c>
     </row>
@@ -618,6 +640,9 @@
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
       <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -632,47 +657,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>29,22%</t>
+          <t>30,71%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>29,12%</t>
+          <t>32,09%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>28,39%</t>
+          <t>29,19%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>51,32%</t>
+          <t>37,11%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>47,29%</t>
+          <t>53,69%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>51,32%</t>
+          <t>51,39%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>41,14%</t>
+          <t>48,21%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>38,95%</t>
+          <t>56,87%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>40,41%</t>
+          <t>43,16%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>42,41%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>39,02%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>47,43%</t>
         </is>
       </c>
     </row>
@@ -685,47 +725,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>23,3; 34,47</t>
+          <t>22,8; 39,24</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>23,6; 34,38</t>
+          <t>24,51; 40,31</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>22,82; 34,35</t>
+          <t>21,28; 36,76</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>45,47; 56,61</t>
+          <t>26,25; 46,28</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>41,25; 52,71</t>
+          <t>46,41; 60,12</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>45,25; 60,23</t>
+          <t>44,61; 57,83</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>36,67; 45,08</t>
+          <t>41,04; 54,58</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>34,29; 42,85</t>
+          <t>49,82; 63,53</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>36,06; 46,96</t>
+          <t>37,24; 48,4</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>36,41; 47,77</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>32,87; 44,35</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>39,58; 53,46</t>
         </is>
       </c>
     </row>
@@ -742,47 +797,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>37,46%</t>
+          <t>39,73%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>29,38%</t>
+          <t>29,91%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>29,52%</t>
+          <t>30,74%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>44,28%</t>
+          <t>37,35%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>41,89%</t>
+          <t>37,07%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>46,29%</t>
+          <t>33,87%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>41,06%</t>
+          <t>38,93%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>35,77%</t>
+          <t>48,23%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>37,98%</t>
+          <t>38,29%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>31,95%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>34,92%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>42,93%</t>
         </is>
       </c>
     </row>
@@ -795,47 +865,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>30,1; 45,68</t>
+          <t>31,42; 49,54</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>22,84; 36,62</t>
+          <t>22,84; 39,54</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>22,97; 37,39</t>
+          <t>22,73; 39,64</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>38,08; 50,6</t>
+          <t>28,73; 47,31</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>35,73; 48,49</t>
+          <t>29,39; 44,69</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>39,85; 53,29</t>
+          <t>27,03; 42,35</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>36,01; 46,45</t>
+          <t>31,38; 46,96</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>31,14; 40,52</t>
+          <t>39,22; 59,31</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>33,3; 43,15</t>
+          <t>32,8; 44,19</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>26,38; 37,44</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>29,68; 40,93</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>36,52; 49,84</t>
         </is>
       </c>
     </row>
@@ -852,47 +937,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>31,2%</t>
+          <t>34,98%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>27,08%</t>
+          <t>29,64%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>32,5%</t>
+          <t>37,33%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>53,03%</t>
+          <t>43,8%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>51,9%</t>
+          <t>56,22%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>57,33%</t>
+          <t>53,62%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>41,69%</t>
+          <t>53,25%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>39,08%</t>
+          <t>60,82%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>44,13%</t>
+          <t>45,57%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>41,78%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>45,14%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>52,01%</t>
         </is>
       </c>
     </row>
@@ -905,47 +1005,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>18,72; 45,33</t>
+          <t>12,2; 56,46</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>16,73; 40,86</t>
+          <t>11,52; 51,57</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>20,03; 46,97</t>
+          <t>15,19; 61,72</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>39,27; 65,03</t>
+          <t>16,19; 67,44</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>39,08; 64,61</t>
+          <t>38,85; 70,65</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>45,46; 68,98</t>
+          <t>37,13; 69,6</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>31,79; 50,92</t>
+          <t>35,59; 67,78</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>29,91; 48,61</t>
+          <t>42,58; 76,27</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>33,58; 53,47</t>
+          <t>28,99; 60,05</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>28,53; 57,21</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>28,54; 60,63</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>32,72; 67,48</t>
         </is>
       </c>
     </row>
@@ -962,47 +1077,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>32,76%</t>
+          <t>34,84%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>28,99%</t>
+          <t>30,93%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>29,35%</t>
+          <t>30,71%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>48,67%</t>
+          <t>37,97%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>45,64%</t>
+          <t>47,11%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>49,96%</t>
+          <t>44,56%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>41,16%</t>
+          <t>44,95%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>37,68%</t>
+          <t>53,89%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>39,86%</t>
+          <t>41,43%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>38,07%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>37,99%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>46,15%</t>
         </is>
       </c>
     </row>
@@ -1015,60 +1145,1081 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>28,53; 37,58</t>
+          <t>28,97; 41,34</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>25,28; 33,67</t>
+          <t>25,88; 36,9</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>24,78; 33,41</t>
+          <t>25,07; 36,56</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>45,07; 52,66</t>
+          <t>31,03; 45,11</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>41,78; 49,94</t>
+          <t>42,26; 51,94</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>45,91; 55,6</t>
+          <t>39,94; 49,68</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>37,99; 43,96</t>
+          <t>39,82; 50,09</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>35,01; 40,43</t>
+          <t>48,96; 59,41</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>36,74; 43,84</t>
+          <t>37,5; 45,53</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>34,38; 41,94</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>34,0; 42,31</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>41,19; 50,86</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="F1:H1"/>
-    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A10:A11"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="K1:N1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que tiene más de dos enfermedades crónicas (tasa de respuesta: 100,0%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Urbano</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>54.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>58.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>55.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>66.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>108.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>106.0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>98.0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>107.0</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>162.0</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>164.0</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>153.0</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>173.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>132060</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>117511</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>111151</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>191473</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>273207</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>216373</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>196442</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>320528</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>405268</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>333884</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>307593</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>512001</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>98041; 168747</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>89740; 147589</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>81030; 139978</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>135446; 238746</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>236152; 305909</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>187837; 243520</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>167253; 222399</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>280795; 358109</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>349663; 454419</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>286622; 376043</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>259136; 349612</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>427263; 577117</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Intermedio</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>51.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>43.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>43.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>50.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>61.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>55.0</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>66.0</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>72.0</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>112.0</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>98.0</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>109.0</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>122.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>142808</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>95230</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>99185</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>154001</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>157675</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>114635</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>130433</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>208954</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>300483</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>209865</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>229618</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>362955</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>112941; 178039</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>72725; 125860</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>73331; 127893</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>118452; 195062</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>125014; 190102</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>91479; 143323</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>105134; 157309</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>169885; 256931</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>257430; 346760</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>173271; 245871</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>195149; 269128</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>308781; 421435</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Rural</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>14.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>20.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>21.0</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>31.0</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>28.0</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>31.0</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>35.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>35600</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>23594</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>31948</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>52296</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>56876</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>43731</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>43960</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>67728</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>92476</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>67325</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>75908</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>120024</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>12417; 57457</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>9170; 41051</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>13002; 52823</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>19335; 80521</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>39298; 71470</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>30277; 56759</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>29379; 55952</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>47417; 84932</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>58837; 121861</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>45984; 92198</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>47989; 101942</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>75498; 155715</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>116.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>110.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>110.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>130.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>189.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>180.0</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>183.0</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>200.0</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>305.0</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>290.0</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>293.0</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>330.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>310468</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>236334</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>242284</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>397771</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>487758</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>374739</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>370835</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>597209</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>798227</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>611074</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>613119</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>994979</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>258235; 368419</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>197731; 281939</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>197842; 288489</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>325108; 472538</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>437579; 537738</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>335948; 417835</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>328544; 413297</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>542563; 658425</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>722439; 877163</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>551883; 673197</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>548824; 682949</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>887931; 1096455</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
